--- a/xlsx/ImportClient.xlsx
+++ b/xlsx/ImportClient.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\TG_SRRF\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexs\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD033674-F5CA-4B51-B93C-43767320F056}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D558FC-C8B7-4E5F-B3EC-2578CED845DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="-11640" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="176">
   <si>
     <t>NAME</t>
   </si>
@@ -69,44 +75,514 @@
     <t>CELL</t>
   </si>
   <si>
-    <t>Giovana Gabrielly BÃ¡rbara Moura</t>
-  </si>
-  <si>
-    <t>231.153.06660</t>
-  </si>
-  <si>
-    <t>20.111.2073</t>
+    <t>Adriana Luna Gabriela Castro</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>giovanagabriellybarbaramoura..giovanagabriellybarbaramoura@netjacarei.com.br</t>
-  </si>
-  <si>
-    <t>Estrada ArcÃ­lio Moreira da Silva</t>
-  </si>
-  <si>
-    <t>Residencial Gazzo</t>
-  </si>
-  <si>
-    <t>SÃ£o JosÃ© dos Campos</t>
+    <t>Adriana@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Doutor Fernando Sarmento 275</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Sao Luis do Quitunde</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Andre Victor da Cruz</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Andre@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Joao Precinca</t>
+  </si>
+  <si>
+    <t>Jorge Teixeira</t>
+  </si>
+  <si>
+    <t>Manaus</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Augusto Manuel Oliveira</t>
+  </si>
+  <si>
+    <t>Augusto@email.com.br</t>
+  </si>
+  <si>
+    <t>Quadra 46</t>
+  </si>
+  <si>
+    <t>Loteamento Costa Esmeralda</t>
+  </si>
+  <si>
+    <t>Araguaina</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Beatriz Alice Flavia Rocha</t>
+  </si>
+  <si>
+    <t>Beatriz@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Capitinga</t>
+  </si>
+  <si>
+    <t>Santa Etelvina</t>
+  </si>
+  <si>
+    <t>Benicio Pietro da Silva</t>
+  </si>
+  <si>
+    <t>Benicio@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua A 31</t>
+  </si>
+  <si>
+    <t>Da Vitoria</t>
+  </si>
+  <si>
+    <t>Goiania</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>Brenda Liz Silva</t>
+  </si>
+  <si>
+    <t>Brenda@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Treze A</t>
+  </si>
+  <si>
+    <t>Maracangalha</t>
+  </si>
+  <si>
+    <t>Belem</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Caio Caua Felipe Almeida</t>
+  </si>
+  <si>
+    <t>Caio@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Belem de Capanema</t>
+  </si>
+  <si>
+    <t>Petropolis</t>
+  </si>
+  <si>
+    <t>Caruaru</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Calebe Elias Gael Lima</t>
+  </si>
+  <si>
+    <t>Calebe@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Almerinda de Oliveira Flores</t>
+  </si>
+  <si>
+    <t>Vila de Rondonia</t>
+  </si>
+  <si>
+    <t>Ji-Parana</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>Carlos Eduardo Severino Campos</t>
+  </si>
+  <si>
+    <t>Carlos@email.com.br</t>
+  </si>
+  <si>
+    <t>Praca Waldir Furtado de Amorim</t>
+  </si>
+  <si>
+    <t>Waldir Furtado Amorim</t>
+  </si>
+  <si>
+    <t>Cachoeiro de Itapemirim</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Elza Catarina Elaine Lima</t>
+  </si>
+  <si>
+    <t>Elza@email.com.br</t>
+  </si>
+  <si>
+    <t>Avenida Glicerio de Souza Figueredo</t>
+  </si>
+  <si>
+    <t>Novo Horizonte</t>
+  </si>
+  <si>
+    <t>Macapa</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Enzo Caua da Silva</t>
+  </si>
+  <si>
+    <t>Enzo@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua da Fraternidade</t>
+  </si>
+  <si>
+    <t>Sete de Abril</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Fernanda Esther Rafaela Porto</t>
+  </si>
+  <si>
+    <t>Fernanda@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Amalia Calssavara Sabadin</t>
+  </si>
+  <si>
+    <t>Jandaia III Residencial Parque</t>
+  </si>
+  <si>
+    <t>Birigui</t>
   </si>
   <si>
     <t>SP</t>
+  </si>
+  <si>
+    <t>Francisca Louise Valentina Duarte</t>
+  </si>
+  <si>
+    <t>Francisca@email.com.br</t>
+  </si>
+  <si>
+    <t>Praca Nove de Novembro</t>
+  </si>
+  <si>
+    <t>Vitoria da Conquista</t>
+  </si>
+  <si>
+    <t>Gael Severino Geraldo Caldeira</t>
+  </si>
+  <si>
+    <t>Gael@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Deputado Francisco Pimentel</t>
+  </si>
+  <si>
+    <t>Juca Sampaio</t>
+  </si>
+  <si>
+    <t>Palmeira dos Indios</t>
+  </si>
+  <si>
+    <t>Jennifer Patricia Almada</t>
+  </si>
+  <si>
+    <t>Jennifer@email.com.br</t>
+  </si>
+  <si>
+    <t>Quadra 8 Lote F</t>
+  </si>
+  <si>
+    <t>Setor Habitacional Jardim Botanico (Lago Sul)</t>
+  </si>
+  <si>
+    <t>Brasilia</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>Jorge Kevin Souza</t>
+  </si>
+  <si>
+    <t>Jorge@email.com.br</t>
+  </si>
+  <si>
+    <t>Quadra CLN 316 Bloco D</t>
+  </si>
+  <si>
+    <t>Asa Norte</t>
+  </si>
+  <si>
+    <t>Juliana Esther Duarte</t>
+  </si>
+  <si>
+    <t>Juliana@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Antonio Mendes da Silva Neto</t>
+  </si>
+  <si>
+    <t>Presidente Costa e Silva</t>
+  </si>
+  <si>
+    <t>Mossoro</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>Lais Lara Farias</t>
+  </si>
+  <si>
+    <t>Lais@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Amazonas de Baixo</t>
+  </si>
+  <si>
+    <t>Saboeiro</t>
+  </si>
+  <si>
+    <t>Liz Heloise Luiza Lima</t>
+  </si>
+  <si>
+    <t>Liz@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Bom Jesus do Cadau</t>
+  </si>
+  <si>
+    <t>Quebra Pote</t>
+  </si>
+  <si>
+    <t>Sao Luis</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Louise Cristiane Francisca Ribeiro</t>
+  </si>
+  <si>
+    <t>Louise@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Lamon Alves</t>
+  </si>
+  <si>
+    <t>Sao Sebastiao</t>
+  </si>
+  <si>
+    <t>Divinopolis</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Luan Caleb da Mata</t>
+  </si>
+  <si>
+    <t>Luan@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Chaparral</t>
+  </si>
+  <si>
+    <t>Jardim Real</t>
+  </si>
+  <si>
+    <t>Luiza Tania da Silva</t>
+  </si>
+  <si>
+    <t>Luiza@email.com.br</t>
+  </si>
+  <si>
+    <t>Estrada Ipiranga</t>
+  </si>
+  <si>
+    <t>Parque Ipiranga</t>
+  </si>
+  <si>
+    <t>Gravatai</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Marcelo Vicente Ian Santos</t>
+  </si>
+  <si>
+    <t>Marcelo@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Alves do Vale</t>
+  </si>
+  <si>
+    <t>Luxemburgo</t>
+  </si>
+  <si>
+    <t>Belo Horizonte</t>
+  </si>
+  <si>
+    <t>Milena Beatriz Pereira</t>
+  </si>
+  <si>
+    <t>Milena@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Desembargador Emilio de Farias</t>
+  </si>
+  <si>
+    <t>Portal do Sol</t>
+  </si>
+  <si>
+    <t>Joao Pessoa</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>Nicole Rafaela Sophie Gomes</t>
+  </si>
+  <si>
+    <t>Nicole@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua C</t>
+  </si>
+  <si>
+    <t>Parque Industrial Intermodal de Rondonopolis</t>
+  </si>
+  <si>
+    <t>Rondonopolis</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Raquel Emily Isabelle Nogueira</t>
+  </si>
+  <si>
+    <t>Raquel@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Doutor Braulino</t>
+  </si>
+  <si>
+    <t>Zerao</t>
+  </si>
+  <si>
+    <t>Sara Melissa Helena Aragao</t>
+  </si>
+  <si>
+    <t>Sara@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Joaquim Aranha de Camargo</t>
+  </si>
+  <si>
+    <t>Garcas</t>
+  </si>
+  <si>
+    <t>Piracicaba</t>
+  </si>
+  <si>
+    <t>Tania Sueli Alves</t>
+  </si>
+  <si>
+    <t>Tania@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Francisco Genuino da Silva</t>
+  </si>
+  <si>
+    <t>Joao Paulo II</t>
+  </si>
+  <si>
+    <t>Valentina Isabel Costa</t>
+  </si>
+  <si>
+    <t>Valentina@email.com.br</t>
+  </si>
+  <si>
+    <t>Rua Guignard</t>
+  </si>
+  <si>
+    <t>Barra do Jucu</t>
+  </si>
+  <si>
+    <t>Vila Velha</t>
+  </si>
+  <si>
+    <t>Vera Mariane Costa</t>
+  </si>
+  <si>
+    <t>Vera@email.com.br</t>
+  </si>
+  <si>
+    <t>Beco Boa Nova</t>
+  </si>
+  <si>
+    <t>Vila Garrido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,19 +605,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -154,7 +631,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -164,44 +641,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -228,32 +705,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -280,24 +739,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -309,158 +750,180 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -473,7 +936,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -508,51 +971,1328 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2">
+        <v>509340156</v>
+      </c>
+      <c r="C2">
+        <v>143588187</v>
+      </c>
+      <c r="D2" s="2">
+        <v>33777</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3">
-        <v>44109</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2">
+        <v>57920970</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2">
+        <v>970</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1">
-        <v>12236852</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1">
-        <v>760</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1">
+        <v>8226345768</v>
+      </c>
+      <c r="N2">
+        <v>82987905728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="B3">
+        <v>69817555640</v>
+      </c>
+      <c r="C3">
+        <v>113053083</v>
+      </c>
+      <c r="D3" s="2">
+        <v>38589</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="2">
-        <v>1237638708</v>
-      </c>
-      <c r="N2" s="1">
-        <v>12995945587</v>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>69088052</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>310</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3">
+        <v>9236390489</v>
+      </c>
+      <c r="N3">
+        <v>92996797847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>71665125802</v>
+      </c>
+      <c r="C4">
+        <v>310038054</v>
+      </c>
+      <c r="D4" s="2">
+        <v>25921</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>77829092</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>736</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4">
+        <v>6339752429</v>
+      </c>
+      <c r="N4">
+        <v>63981451838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>89025267980</v>
+      </c>
+      <c r="C5">
+        <v>218240041</v>
+      </c>
+      <c r="D5" s="2">
+        <v>30247</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>69059594</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5">
+        <v>662</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5">
+        <v>9235347629</v>
+      </c>
+      <c r="N5">
+        <v>92983893501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>5321921920</v>
+      </c>
+      <c r="C6">
+        <v>284573085</v>
+      </c>
+      <c r="D6" s="2">
+        <v>38392</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>74477056</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>658</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6">
+        <v>6238288666</v>
+      </c>
+      <c r="N6">
+        <v>62995714229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>39373338005</v>
+      </c>
+      <c r="C7">
+        <v>455693729</v>
+      </c>
+      <c r="D7" s="2">
+        <v>40359</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>66110057</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7">
+        <v>227</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7">
+        <v>9126425620</v>
+      </c>
+      <c r="N7">
+        <v>91985822074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>83878895399</v>
+      </c>
+      <c r="C8">
+        <v>312016116</v>
+      </c>
+      <c r="D8" s="2">
+        <v>34188</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8">
+        <v>55032430</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8">
+        <v>398</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8">
+        <v>8136082727</v>
+      </c>
+      <c r="N8">
+        <v>81982351326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>97096787100</v>
+      </c>
+      <c r="C9">
+        <v>342766843</v>
+      </c>
+      <c r="D9" s="2">
+        <v>38340</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9">
+        <v>76900468</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9">
+        <v>140</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9">
+        <v>6926536890</v>
+      </c>
+      <c r="N9">
+        <v>69985320109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10">
+        <v>21377423220</v>
+      </c>
+      <c r="C10">
+        <v>319600075</v>
+      </c>
+      <c r="D10" s="2">
+        <v>26161</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10">
+        <v>29313815</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10">
+        <v>603</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10">
+        <v>2826742383</v>
+      </c>
+      <c r="N10">
+        <v>28992512919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11">
+        <v>46629937414</v>
+      </c>
+      <c r="C11">
+        <v>278058401</v>
+      </c>
+      <c r="D11" s="2">
+        <v>37349</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11">
+        <v>68909821</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <v>728</v>
+      </c>
+      <c r="J11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11">
+        <v>9638924045</v>
+      </c>
+      <c r="N11">
+        <v>96998155000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12">
+        <v>21117836258</v>
+      </c>
+      <c r="C12">
+        <v>119850254</v>
+      </c>
+      <c r="D12" s="2">
+        <v>29246</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12">
+        <v>41385215</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12">
+        <v>850</v>
+      </c>
+      <c r="J12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12">
+        <v>7135685618</v>
+      </c>
+      <c r="N12">
+        <v>71996997418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>11270808575</v>
+      </c>
+      <c r="C13">
+        <v>509683046</v>
+      </c>
+      <c r="D13" s="2">
+        <v>40166</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13">
+        <v>16203620</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13">
+        <v>912</v>
+      </c>
+      <c r="J13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13">
+        <v>1829068402</v>
+      </c>
+      <c r="N13">
+        <v>18992030946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14">
+        <v>61075394929</v>
+      </c>
+      <c r="C14">
+        <v>266264566</v>
+      </c>
+      <c r="D14" s="2">
+        <v>38068</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14">
+        <v>45000370</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14">
+        <v>939</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14">
+        <v>7737991332</v>
+      </c>
+      <c r="N14">
+        <v>77985963559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>63108281186</v>
+      </c>
+      <c r="C15">
+        <v>472721811</v>
+      </c>
+      <c r="D15" s="2">
+        <v>25980</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15">
+        <v>57603080</v>
+      </c>
+      <c r="H15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15">
+        <v>8236070675</v>
+      </c>
+      <c r="N15">
+        <v>82985859528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16">
+        <v>86157351900</v>
+      </c>
+      <c r="C16">
+        <v>102174623</v>
+      </c>
+      <c r="D16" s="2">
+        <v>26110</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16">
+        <v>71681460</v>
+      </c>
+      <c r="H16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16">
+        <v>577</v>
+      </c>
+      <c r="J16" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>6125031531</v>
+      </c>
+      <c r="N16">
+        <v>61995949275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17">
+        <v>48741845455</v>
+      </c>
+      <c r="C17">
+        <v>481592532</v>
+      </c>
+      <c r="D17" s="2">
+        <v>28757</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17">
+        <v>70775540</v>
+      </c>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17">
+        <v>571</v>
+      </c>
+      <c r="J17" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <v>6126974339</v>
+      </c>
+      <c r="N17">
+        <v>61999814234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18">
+        <v>22744105775</v>
+      </c>
+      <c r="C18">
+        <v>487448777</v>
+      </c>
+      <c r="D18" s="2">
+        <v>34945</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18">
+        <v>59625735</v>
+      </c>
+      <c r="H18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18">
+        <v>327</v>
+      </c>
+      <c r="J18" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18">
+        <v>8426157896</v>
+      </c>
+      <c r="N18">
+        <v>84981998157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19">
+        <v>59649000208</v>
+      </c>
+      <c r="C19">
+        <v>329843163</v>
+      </c>
+      <c r="D19" s="2">
+        <v>34625</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19">
+        <v>41180015</v>
+      </c>
+      <c r="H19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19">
+        <v>275</v>
+      </c>
+      <c r="J19" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19">
+        <v>7139037145</v>
+      </c>
+      <c r="N19">
+        <v>71993295453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20">
+        <v>86129713223</v>
+      </c>
+      <c r="C20">
+        <v>129301048</v>
+      </c>
+      <c r="D20" s="2">
+        <v>32371</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20">
+        <v>65092300</v>
+      </c>
+      <c r="H20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20">
+        <v>815</v>
+      </c>
+      <c r="J20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20">
+        <v>9837434842</v>
+      </c>
+      <c r="N20">
+        <v>98993487380</v>
+      </c>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21">
+        <v>31529377765</v>
+      </c>
+      <c r="C21">
+        <v>434530633</v>
+      </c>
+      <c r="D21" s="2">
+        <v>33713</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21">
+        <v>35500059</v>
+      </c>
+      <c r="H21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21">
+        <v>922</v>
+      </c>
+      <c r="J21" t="s">
+        <v>124</v>
+      </c>
+      <c r="K21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21">
+        <v>3739946321</v>
+      </c>
+      <c r="N21">
+        <v>37991087913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22">
+        <v>74212962802</v>
+      </c>
+      <c r="C22">
+        <v>217159333</v>
+      </c>
+      <c r="D22" s="2">
+        <v>28559</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22">
+        <v>74494099</v>
+      </c>
+      <c r="H22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22">
+        <v>378</v>
+      </c>
+      <c r="J22" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22">
+        <v>6229039758</v>
+      </c>
+      <c r="N22">
+        <v>62994394550</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23">
+        <v>38871882849</v>
+      </c>
+      <c r="C23">
+        <v>492805088</v>
+      </c>
+      <c r="D23" s="2">
+        <v>23775</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23">
+        <v>94110470</v>
+      </c>
+      <c r="H23" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23">
+        <v>353</v>
+      </c>
+      <c r="J23" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" t="s">
+        <v>136</v>
+      </c>
+      <c r="M23">
+        <v>5135191629</v>
+      </c>
+      <c r="N23">
+        <v>51997966194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24">
+        <v>70879785438</v>
+      </c>
+      <c r="C24">
+        <v>144414685</v>
+      </c>
+      <c r="D24" s="2">
+        <v>40115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24">
+        <v>30380320</v>
+      </c>
+      <c r="H24" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24">
+        <v>769</v>
+      </c>
+      <c r="J24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" t="s">
+        <v>141</v>
+      </c>
+      <c r="L24" t="s">
+        <v>126</v>
+      </c>
+      <c r="M24">
+        <v>3136181458</v>
+      </c>
+      <c r="N24">
+        <v>31985156055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25">
+        <v>31410312666</v>
+      </c>
+      <c r="C25">
+        <v>498487659</v>
+      </c>
+      <c r="D25" s="2">
+        <v>31592</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25">
+        <v>58046530</v>
+      </c>
+      <c r="H25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25">
+        <v>617</v>
+      </c>
+      <c r="J25" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" t="s">
+        <v>147</v>
+      </c>
+      <c r="M25">
+        <v>8339265590</v>
+      </c>
+      <c r="N25">
+        <v>83991477508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26">
+        <v>23429885752</v>
+      </c>
+      <c r="C26">
+        <v>387488698</v>
+      </c>
+      <c r="D26" s="2">
+        <v>32660</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26">
+        <v>78746856</v>
+      </c>
+      <c r="H26" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26">
+        <v>717</v>
+      </c>
+      <c r="J26" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26">
+        <v>6629551837</v>
+      </c>
+      <c r="N26">
+        <v>66989325935</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27">
+        <v>35468222698</v>
+      </c>
+      <c r="C27">
+        <v>488448785</v>
+      </c>
+      <c r="D27" s="2">
+        <v>25003</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27">
+        <v>68903022</v>
+      </c>
+      <c r="H27" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27">
+        <v>300</v>
+      </c>
+      <c r="J27" t="s">
+        <v>157</v>
+      </c>
+      <c r="K27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" t="s">
+        <v>73</v>
+      </c>
+      <c r="M27">
+        <v>9636155106</v>
+      </c>
+      <c r="N27">
+        <v>96988601046</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28">
+        <v>5286710220</v>
+      </c>
+      <c r="C28">
+        <v>349698661</v>
+      </c>
+      <c r="D28" s="2">
+        <v>26087</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28">
+        <v>13423660</v>
+      </c>
+      <c r="H28" t="s">
+        <v>160</v>
+      </c>
+      <c r="I28">
+        <v>691</v>
+      </c>
+      <c r="J28" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" t="s">
+        <v>162</v>
+      </c>
+      <c r="L28" t="s">
+        <v>85</v>
+      </c>
+      <c r="M28">
+        <v>1939280543</v>
+      </c>
+      <c r="N28">
+        <v>19989238634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29">
+        <v>25087378285</v>
+      </c>
+      <c r="C29">
+        <v>461503694</v>
+      </c>
+      <c r="D29" s="2">
+        <v>38748</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29">
+        <v>58076330</v>
+      </c>
+      <c r="H29" t="s">
+        <v>165</v>
+      </c>
+      <c r="I29">
+        <v>285</v>
+      </c>
+      <c r="J29" t="s">
+        <v>166</v>
+      </c>
+      <c r="K29" t="s">
+        <v>146</v>
+      </c>
+      <c r="L29" t="s">
+        <v>147</v>
+      </c>
+      <c r="M29">
+        <v>8326545467</v>
+      </c>
+      <c r="N29">
+        <v>83994449547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30">
+        <v>27618190046</v>
+      </c>
+      <c r="C30">
+        <v>374019459</v>
+      </c>
+      <c r="D30" s="2">
+        <v>29730</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30">
+        <v>29125079</v>
+      </c>
+      <c r="H30" t="s">
+        <v>169</v>
+      </c>
+      <c r="I30">
+        <v>764</v>
+      </c>
+      <c r="J30" t="s">
+        <v>170</v>
+      </c>
+      <c r="K30" t="s">
+        <v>171</v>
+      </c>
+      <c r="L30" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30">
+        <v>2737574400</v>
+      </c>
+      <c r="N30">
+        <v>27983889923</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31">
+        <v>5734234664</v>
+      </c>
+      <c r="C31">
+        <v>443084579</v>
+      </c>
+      <c r="D31" s="2">
+        <v>25000</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31">
+        <v>29116276</v>
+      </c>
+      <c r="H31" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31">
+        <v>701</v>
+      </c>
+      <c r="J31" t="s">
+        <v>175</v>
+      </c>
+      <c r="K31" t="s">
+        <v>171</v>
+      </c>
+      <c r="L31" t="s">
+        <v>67</v>
+      </c>
+      <c r="M31">
+        <v>2728787186</v>
+      </c>
+      <c r="N31">
+        <v>27987114615</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>